--- a/Sample InputOutput QC and Aggregation.xlsx
+++ b/Sample InputOutput QC and Aggregation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theogoldberg/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackroseman/Desktop/NETS213/CrowdHire/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BDF1C6-A6B4-C844-92A0-614E7BF17C75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D67451-DC53-074E-9F6C-F1264F46EF67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="460" windowWidth="30140" windowHeight="20120" activeTab="1" xr2:uid="{094C90FA-7C51-0C48-9C5D-595A877F343C}"/>
+    <workbookView xWindow="640" yWindow="0" windowWidth="25600" windowHeight="14160" xr2:uid="{094C90FA-7C51-0C48-9C5D-595A877F343C}"/>
   </bookViews>
   <sheets>
     <sheet name="Quality Control Input" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="147">
   <si>
     <t>HIT ID</t>
   </si>
@@ -419,6 +419,66 @@
   <si>
     <t>Q4.creativity</t>
   </si>
+  <si>
+    <t>GStruth.Q1.answer.finance</t>
+  </si>
+  <si>
+    <t>GStruth.Q1.answer.entertainment</t>
+  </si>
+  <si>
+    <t>GStruth.Q1.answer.healthcare</t>
+  </si>
+  <si>
+    <t>GStruth.Q1.answer.government</t>
+  </si>
+  <si>
+    <t>GStruth.Q1.answer.sports</t>
+  </si>
+  <si>
+    <t>GStruth.Q1.answer.technology</t>
+  </si>
+  <si>
+    <t>GStruth.Q1.manufacturing</t>
+  </si>
+  <si>
+    <t>GStruth.Q1.law</t>
+  </si>
+  <si>
+    <t>GStruth.Q1.service_industry</t>
+  </si>
+  <si>
+    <t>GStruth.Q1.other</t>
+  </si>
+  <si>
+    <t>GStruth.Q2.answer</t>
+  </si>
+  <si>
+    <t>GStruth.Q3.answer</t>
+  </si>
+  <si>
+    <t>GStruth.Q4.communication</t>
+  </si>
+  <si>
+    <t>GStruth.Q4.customer_service</t>
+  </si>
+  <si>
+    <t>GStruth.Q4.leadership</t>
+  </si>
+  <si>
+    <t>GStruth.Q4.organization/planning</t>
+  </si>
+  <si>
+    <t>GStruth.Q4.collaboration</t>
+  </si>
+  <si>
+    <t>GStruth.Q4.problem_solving</t>
+  </si>
+  <si>
+    <t>GStruth.Q4.time_management</t>
+  </si>
+  <si>
+    <t>GStruth.Q4.creativity</t>
+  </si>
 </sst>
 </file>
 
@@ -772,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A5E3E0-A29E-7E4C-8990-0BDF86557974}">
-  <dimension ref="A1:CL31"/>
+  <dimension ref="A1:DF31"/>
   <sheetViews>
-    <sheetView topLeftCell="BK1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="CI14" sqref="CI14"/>
+    <sheetView tabSelected="1" topLeftCell="CH1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="CJ6" sqref="CJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16"/>
@@ -860,9 +920,28 @@
     <col min="88" max="88" width="21" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="22" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="14" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="17" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90">
+    <row r="1" spans="1:110">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1133,8 +1212,68 @@
       <c r="CL1" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="CM1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="2" spans="1:90">
+    <row r="2" spans="1:110">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1405,8 +1544,68 @@
       <c r="CL2" t="b">
         <v>0</v>
       </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>2</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>6</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY2" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:90">
+    <row r="3" spans="1:110">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1677,8 +1876,68 @@
       <c r="CL3" t="b">
         <v>0</v>
       </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>2</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>6</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY3" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC3" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD3" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:90">
+    <row r="4" spans="1:110">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1949,8 +2208,68 @@
       <c r="CL4" t="b">
         <v>0</v>
       </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>2</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>6</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY4" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA4" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC4" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD4" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:90">
+    <row r="5" spans="1:110">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2224,8 +2543,68 @@
       <c r="CL5" t="b">
         <v>0</v>
       </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>2</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>6</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY5" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA5" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC5" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD5" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF5" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:90">
+    <row r="6" spans="1:110">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2499,8 +2878,68 @@
       <c r="CL6" t="b">
         <v>0</v>
       </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>2</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>6</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY6" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA6" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC6" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD6" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF6" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:90">
+    <row r="7" spans="1:110">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2774,8 +3213,68 @@
       <c r="CL7" t="b">
         <v>0</v>
       </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>2</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>6</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY7" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA7" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB7" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF7" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:90">
+    <row r="8" spans="1:110">
       <c r="A8">
         <v>3</v>
       </c>
@@ -3049,8 +3548,68 @@
       <c r="CL8" t="b">
         <v>0</v>
       </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>2</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>6</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX8" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY8" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA8" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB8" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD8" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF8" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:90">
+    <row r="9" spans="1:110">
       <c r="A9">
         <v>3</v>
       </c>
@@ -3324,8 +3883,68 @@
       <c r="CL9" t="b">
         <v>0</v>
       </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>2</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>6</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY9" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA9" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB9" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC9" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD9" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF9" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:90">
+    <row r="10" spans="1:110">
       <c r="A10">
         <v>3</v>
       </c>
@@ -3599,8 +4218,68 @@
       <c r="CL10" t="b">
         <v>0</v>
       </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>2</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>6</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY10" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA10" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB10" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC10" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD10" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF10" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:90">
+    <row r="11" spans="1:110">
       <c r="A11">
         <v>4</v>
       </c>
@@ -3875,8 +4554,68 @@
       <c r="CL11" t="b">
         <v>0</v>
       </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>2</v>
+      </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>6</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX11" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY11" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA11" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB11" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC11" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD11" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF11" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:90">
+    <row r="12" spans="1:110">
       <c r="A12">
         <v>4</v>
       </c>
@@ -4151,8 +4890,68 @@
       <c r="CL12" t="b">
         <v>0</v>
       </c>
+      <c r="CM12">
+        <v>0</v>
+      </c>
+      <c r="CN12">
+        <v>2</v>
+      </c>
+      <c r="CO12">
+        <v>0</v>
+      </c>
+      <c r="CP12">
+        <v>0</v>
+      </c>
+      <c r="CQ12">
+        <v>0</v>
+      </c>
+      <c r="CR12">
+        <v>6</v>
+      </c>
+      <c r="CS12">
+        <v>0</v>
+      </c>
+      <c r="CT12">
+        <v>0</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12">
+        <v>0</v>
+      </c>
+      <c r="CW12" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX12" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY12" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA12" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB12" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC12" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD12" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF12" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:90">
+    <row r="13" spans="1:110">
       <c r="A13">
         <v>4</v>
       </c>
@@ -4427,8 +5226,68 @@
       <c r="CL13" t="b">
         <v>0</v>
       </c>
+      <c r="CM13">
+        <v>0</v>
+      </c>
+      <c r="CN13">
+        <v>2</v>
+      </c>
+      <c r="CO13">
+        <v>0</v>
+      </c>
+      <c r="CP13">
+        <v>0</v>
+      </c>
+      <c r="CQ13">
+        <v>0</v>
+      </c>
+      <c r="CR13">
+        <v>6</v>
+      </c>
+      <c r="CS13">
+        <v>0</v>
+      </c>
+      <c r="CT13">
+        <v>0</v>
+      </c>
+      <c r="CU13">
+        <v>0</v>
+      </c>
+      <c r="CV13">
+        <v>0</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY13" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA13" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB13" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC13" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD13" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF13" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:90">
+    <row r="14" spans="1:110">
       <c r="A14">
         <v>5</v>
       </c>
@@ -4703,8 +5562,68 @@
       <c r="CL14" t="b">
         <v>0</v>
       </c>
+      <c r="CM14">
+        <v>0</v>
+      </c>
+      <c r="CN14">
+        <v>2</v>
+      </c>
+      <c r="CO14">
+        <v>0</v>
+      </c>
+      <c r="CP14">
+        <v>0</v>
+      </c>
+      <c r="CQ14">
+        <v>0</v>
+      </c>
+      <c r="CR14">
+        <v>6</v>
+      </c>
+      <c r="CS14">
+        <v>0</v>
+      </c>
+      <c r="CT14">
+        <v>0</v>
+      </c>
+      <c r="CU14">
+        <v>0</v>
+      </c>
+      <c r="CV14">
+        <v>0</v>
+      </c>
+      <c r="CW14" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY14" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA14" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB14" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC14" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD14" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF14" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:90">
+    <row r="15" spans="1:110">
       <c r="A15">
         <v>5</v>
       </c>
@@ -4979,8 +5898,68 @@
       <c r="CL15" t="b">
         <v>0</v>
       </c>
+      <c r="CM15">
+        <v>0</v>
+      </c>
+      <c r="CN15">
+        <v>2</v>
+      </c>
+      <c r="CO15">
+        <v>0</v>
+      </c>
+      <c r="CP15">
+        <v>0</v>
+      </c>
+      <c r="CQ15">
+        <v>0</v>
+      </c>
+      <c r="CR15">
+        <v>6</v>
+      </c>
+      <c r="CS15">
+        <v>0</v>
+      </c>
+      <c r="CT15">
+        <v>0</v>
+      </c>
+      <c r="CU15">
+        <v>0</v>
+      </c>
+      <c r="CV15">
+        <v>0</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY15" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC15" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD15" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF15" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:90">
+    <row r="16" spans="1:110">
       <c r="A16">
         <v>5</v>
       </c>
@@ -5255,8 +6234,68 @@
       <c r="CL16" t="b">
         <v>0</v>
       </c>
+      <c r="CM16">
+        <v>0</v>
+      </c>
+      <c r="CN16">
+        <v>2</v>
+      </c>
+      <c r="CO16">
+        <v>0</v>
+      </c>
+      <c r="CP16">
+        <v>0</v>
+      </c>
+      <c r="CQ16">
+        <v>0</v>
+      </c>
+      <c r="CR16">
+        <v>6</v>
+      </c>
+      <c r="CS16">
+        <v>0</v>
+      </c>
+      <c r="CT16">
+        <v>0</v>
+      </c>
+      <c r="CU16">
+        <v>0</v>
+      </c>
+      <c r="CV16">
+        <v>0</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY16" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA16" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB16" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC16" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD16" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF16" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:90">
+    <row r="17" spans="1:110">
       <c r="A17">
         <v>6</v>
       </c>
@@ -5531,8 +6570,68 @@
       <c r="CL17" t="b">
         <v>0</v>
       </c>
+      <c r="CM17">
+        <v>0</v>
+      </c>
+      <c r="CN17">
+        <v>2</v>
+      </c>
+      <c r="CO17">
+        <v>0</v>
+      </c>
+      <c r="CP17">
+        <v>0</v>
+      </c>
+      <c r="CQ17">
+        <v>0</v>
+      </c>
+      <c r="CR17">
+        <v>6</v>
+      </c>
+      <c r="CS17">
+        <v>0</v>
+      </c>
+      <c r="CT17">
+        <v>0</v>
+      </c>
+      <c r="CU17">
+        <v>0</v>
+      </c>
+      <c r="CV17">
+        <v>0</v>
+      </c>
+      <c r="CW17" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX17" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY17" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA17" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB17" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC17" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD17" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF17" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:90">
+    <row r="18" spans="1:110">
       <c r="A18">
         <v>6</v>
       </c>
@@ -5807,8 +6906,68 @@
       <c r="CL18" t="b">
         <v>0</v>
       </c>
+      <c r="CM18">
+        <v>0</v>
+      </c>
+      <c r="CN18">
+        <v>2</v>
+      </c>
+      <c r="CO18">
+        <v>0</v>
+      </c>
+      <c r="CP18">
+        <v>0</v>
+      </c>
+      <c r="CQ18">
+        <v>0</v>
+      </c>
+      <c r="CR18">
+        <v>6</v>
+      </c>
+      <c r="CS18">
+        <v>0</v>
+      </c>
+      <c r="CT18">
+        <v>0</v>
+      </c>
+      <c r="CU18">
+        <v>0</v>
+      </c>
+      <c r="CV18">
+        <v>0</v>
+      </c>
+      <c r="CW18" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX18" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY18" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA18" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB18" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC18" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD18" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:90">
+    <row r="19" spans="1:110">
       <c r="A19">
         <v>6</v>
       </c>
@@ -6083,8 +7242,68 @@
       <c r="CL19" t="b">
         <v>0</v>
       </c>
+      <c r="CM19">
+        <v>0</v>
+      </c>
+      <c r="CN19">
+        <v>2</v>
+      </c>
+      <c r="CO19">
+        <v>0</v>
+      </c>
+      <c r="CP19">
+        <v>0</v>
+      </c>
+      <c r="CQ19">
+        <v>0</v>
+      </c>
+      <c r="CR19">
+        <v>6</v>
+      </c>
+      <c r="CS19">
+        <v>0</v>
+      </c>
+      <c r="CT19">
+        <v>0</v>
+      </c>
+      <c r="CU19">
+        <v>0</v>
+      </c>
+      <c r="CV19">
+        <v>0</v>
+      </c>
+      <c r="CW19" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX19" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY19" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA19" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB19" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC19" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD19" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF19" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:90">
+    <row r="20" spans="1:110">
       <c r="A20">
         <v>7</v>
       </c>
@@ -6359,8 +7578,68 @@
       <c r="CL20" t="b">
         <v>0</v>
       </c>
+      <c r="CM20">
+        <v>0</v>
+      </c>
+      <c r="CN20">
+        <v>2</v>
+      </c>
+      <c r="CO20">
+        <v>0</v>
+      </c>
+      <c r="CP20">
+        <v>0</v>
+      </c>
+      <c r="CQ20">
+        <v>0</v>
+      </c>
+      <c r="CR20">
+        <v>6</v>
+      </c>
+      <c r="CS20">
+        <v>0</v>
+      </c>
+      <c r="CT20">
+        <v>0</v>
+      </c>
+      <c r="CU20">
+        <v>0</v>
+      </c>
+      <c r="CV20">
+        <v>0</v>
+      </c>
+      <c r="CW20" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX20" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY20" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ20" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA20" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB20" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC20" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD20" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF20" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:90">
+    <row r="21" spans="1:110">
       <c r="A21">
         <v>7</v>
       </c>
@@ -6635,8 +7914,68 @@
       <c r="CL21" t="b">
         <v>0</v>
       </c>
+      <c r="CM21">
+        <v>0</v>
+      </c>
+      <c r="CN21">
+        <v>2</v>
+      </c>
+      <c r="CO21">
+        <v>0</v>
+      </c>
+      <c r="CP21">
+        <v>0</v>
+      </c>
+      <c r="CQ21">
+        <v>0</v>
+      </c>
+      <c r="CR21">
+        <v>6</v>
+      </c>
+      <c r="CS21">
+        <v>0</v>
+      </c>
+      <c r="CT21">
+        <v>0</v>
+      </c>
+      <c r="CU21">
+        <v>0</v>
+      </c>
+      <c r="CV21">
+        <v>0</v>
+      </c>
+      <c r="CW21" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX21" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY21" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ21" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA21" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB21" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC21" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD21" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF21" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:90">
+    <row r="22" spans="1:110">
       <c r="A22">
         <v>7</v>
       </c>
@@ -6911,8 +8250,68 @@
       <c r="CL22" t="b">
         <v>0</v>
       </c>
+      <c r="CM22">
+        <v>0</v>
+      </c>
+      <c r="CN22">
+        <v>2</v>
+      </c>
+      <c r="CO22">
+        <v>0</v>
+      </c>
+      <c r="CP22">
+        <v>0</v>
+      </c>
+      <c r="CQ22">
+        <v>0</v>
+      </c>
+      <c r="CR22">
+        <v>6</v>
+      </c>
+      <c r="CS22">
+        <v>0</v>
+      </c>
+      <c r="CT22">
+        <v>0</v>
+      </c>
+      <c r="CU22">
+        <v>0</v>
+      </c>
+      <c r="CV22">
+        <v>0</v>
+      </c>
+      <c r="CW22" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX22" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY22" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ22" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA22" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB22" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC22" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD22" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF22" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:90">
+    <row r="23" spans="1:110">
       <c r="A23">
         <v>8</v>
       </c>
@@ -7187,8 +8586,68 @@
       <c r="CL23" t="b">
         <v>0</v>
       </c>
+      <c r="CM23">
+        <v>0</v>
+      </c>
+      <c r="CN23">
+        <v>2</v>
+      </c>
+      <c r="CO23">
+        <v>0</v>
+      </c>
+      <c r="CP23">
+        <v>0</v>
+      </c>
+      <c r="CQ23">
+        <v>0</v>
+      </c>
+      <c r="CR23">
+        <v>6</v>
+      </c>
+      <c r="CS23">
+        <v>0</v>
+      </c>
+      <c r="CT23">
+        <v>0</v>
+      </c>
+      <c r="CU23">
+        <v>0</v>
+      </c>
+      <c r="CV23">
+        <v>0</v>
+      </c>
+      <c r="CW23" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX23" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY23" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ23" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA23" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB23" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC23" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD23" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF23" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:90">
+    <row r="24" spans="1:110">
       <c r="A24">
         <v>8</v>
       </c>
@@ -7463,8 +8922,68 @@
       <c r="CL24" t="b">
         <v>0</v>
       </c>
+      <c r="CM24">
+        <v>0</v>
+      </c>
+      <c r="CN24">
+        <v>2</v>
+      </c>
+      <c r="CO24">
+        <v>0</v>
+      </c>
+      <c r="CP24">
+        <v>0</v>
+      </c>
+      <c r="CQ24">
+        <v>0</v>
+      </c>
+      <c r="CR24">
+        <v>6</v>
+      </c>
+      <c r="CS24">
+        <v>0</v>
+      </c>
+      <c r="CT24">
+        <v>0</v>
+      </c>
+      <c r="CU24">
+        <v>0</v>
+      </c>
+      <c r="CV24">
+        <v>0</v>
+      </c>
+      <c r="CW24" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX24" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY24" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ24" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA24" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB24" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC24" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD24" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF24" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:90">
+    <row r="25" spans="1:110">
       <c r="A25">
         <v>8</v>
       </c>
@@ -7739,8 +9258,68 @@
       <c r="CL25" t="b">
         <v>0</v>
       </c>
+      <c r="CM25">
+        <v>0</v>
+      </c>
+      <c r="CN25">
+        <v>2</v>
+      </c>
+      <c r="CO25">
+        <v>0</v>
+      </c>
+      <c r="CP25">
+        <v>0</v>
+      </c>
+      <c r="CQ25">
+        <v>0</v>
+      </c>
+      <c r="CR25">
+        <v>6</v>
+      </c>
+      <c r="CS25">
+        <v>0</v>
+      </c>
+      <c r="CT25">
+        <v>0</v>
+      </c>
+      <c r="CU25">
+        <v>0</v>
+      </c>
+      <c r="CV25">
+        <v>0</v>
+      </c>
+      <c r="CW25" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX25" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY25" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA25" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB25" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC25" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD25" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF25" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:90">
+    <row r="26" spans="1:110">
       <c r="A26">
         <v>9</v>
       </c>
@@ -8015,8 +9594,68 @@
       <c r="CL26" t="b">
         <v>0</v>
       </c>
+      <c r="CM26">
+        <v>0</v>
+      </c>
+      <c r="CN26">
+        <v>2</v>
+      </c>
+      <c r="CO26">
+        <v>0</v>
+      </c>
+      <c r="CP26">
+        <v>0</v>
+      </c>
+      <c r="CQ26">
+        <v>0</v>
+      </c>
+      <c r="CR26">
+        <v>6</v>
+      </c>
+      <c r="CS26">
+        <v>0</v>
+      </c>
+      <c r="CT26">
+        <v>0</v>
+      </c>
+      <c r="CU26">
+        <v>0</v>
+      </c>
+      <c r="CV26">
+        <v>0</v>
+      </c>
+      <c r="CW26" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX26" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY26" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA26" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB26" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC26" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD26" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF26" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:90">
+    <row r="27" spans="1:110">
       <c r="A27">
         <v>9</v>
       </c>
@@ -8291,8 +9930,68 @@
       <c r="CL27" t="b">
         <v>0</v>
       </c>
+      <c r="CM27">
+        <v>0</v>
+      </c>
+      <c r="CN27">
+        <v>2</v>
+      </c>
+      <c r="CO27">
+        <v>0</v>
+      </c>
+      <c r="CP27">
+        <v>0</v>
+      </c>
+      <c r="CQ27">
+        <v>0</v>
+      </c>
+      <c r="CR27">
+        <v>6</v>
+      </c>
+      <c r="CS27">
+        <v>0</v>
+      </c>
+      <c r="CT27">
+        <v>0</v>
+      </c>
+      <c r="CU27">
+        <v>0</v>
+      </c>
+      <c r="CV27">
+        <v>0</v>
+      </c>
+      <c r="CW27" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX27" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY27" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ27" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA27" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB27" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC27" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD27" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF27" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:90">
+    <row r="28" spans="1:110">
       <c r="A28">
         <v>9</v>
       </c>
@@ -8567,8 +10266,68 @@
       <c r="CL28" t="b">
         <v>0</v>
       </c>
+      <c r="CM28">
+        <v>0</v>
+      </c>
+      <c r="CN28">
+        <v>2</v>
+      </c>
+      <c r="CO28">
+        <v>0</v>
+      </c>
+      <c r="CP28">
+        <v>0</v>
+      </c>
+      <c r="CQ28">
+        <v>0</v>
+      </c>
+      <c r="CR28">
+        <v>6</v>
+      </c>
+      <c r="CS28">
+        <v>0</v>
+      </c>
+      <c r="CT28">
+        <v>0</v>
+      </c>
+      <c r="CU28">
+        <v>0</v>
+      </c>
+      <c r="CV28">
+        <v>0</v>
+      </c>
+      <c r="CW28" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX28" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY28" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ28" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA28" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB28" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC28" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD28" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF28" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:90">
+    <row r="29" spans="1:110">
       <c r="A29">
         <v>10</v>
       </c>
@@ -8843,8 +10602,68 @@
       <c r="CL29" t="b">
         <v>0</v>
       </c>
+      <c r="CM29">
+        <v>0</v>
+      </c>
+      <c r="CN29">
+        <v>2</v>
+      </c>
+      <c r="CO29">
+        <v>0</v>
+      </c>
+      <c r="CP29">
+        <v>0</v>
+      </c>
+      <c r="CQ29">
+        <v>0</v>
+      </c>
+      <c r="CR29">
+        <v>6</v>
+      </c>
+      <c r="CS29">
+        <v>0</v>
+      </c>
+      <c r="CT29">
+        <v>0</v>
+      </c>
+      <c r="CU29">
+        <v>0</v>
+      </c>
+      <c r="CV29">
+        <v>0</v>
+      </c>
+      <c r="CW29" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX29" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY29" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ29" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA29" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB29" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC29" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD29" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF29" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:90" ht="15" customHeight="1">
+    <row r="30" spans="1:110" ht="15" customHeight="1">
       <c r="A30">
         <v>10</v>
       </c>
@@ -9119,8 +10938,68 @@
       <c r="CL30" t="b">
         <v>0</v>
       </c>
+      <c r="CM30">
+        <v>0</v>
+      </c>
+      <c r="CN30">
+        <v>2</v>
+      </c>
+      <c r="CO30">
+        <v>0</v>
+      </c>
+      <c r="CP30">
+        <v>0</v>
+      </c>
+      <c r="CQ30">
+        <v>0</v>
+      </c>
+      <c r="CR30">
+        <v>6</v>
+      </c>
+      <c r="CS30">
+        <v>0</v>
+      </c>
+      <c r="CT30">
+        <v>0</v>
+      </c>
+      <c r="CU30">
+        <v>0</v>
+      </c>
+      <c r="CV30">
+        <v>0</v>
+      </c>
+      <c r="CW30" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX30" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY30" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA30" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB30" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC30" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD30" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF30" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:90">
+    <row r="31" spans="1:110">
       <c r="A31">
         <v>10</v>
       </c>
@@ -9393,6 +11272,66 @@
         <v>0</v>
       </c>
       <c r="CL31" t="b">
+        <v>0</v>
+      </c>
+      <c r="CM31">
+        <v>0</v>
+      </c>
+      <c r="CN31">
+        <v>2</v>
+      </c>
+      <c r="CO31">
+        <v>0</v>
+      </c>
+      <c r="CP31">
+        <v>0</v>
+      </c>
+      <c r="CQ31">
+        <v>0</v>
+      </c>
+      <c r="CR31">
+        <v>6</v>
+      </c>
+      <c r="CS31">
+        <v>0</v>
+      </c>
+      <c r="CT31">
+        <v>0</v>
+      </c>
+      <c r="CU31">
+        <v>0</v>
+      </c>
+      <c r="CV31">
+        <v>0</v>
+      </c>
+      <c r="CW31" t="s">
+        <v>94</v>
+      </c>
+      <c r="CX31" t="s">
+        <v>95</v>
+      </c>
+      <c r="CY31" t="b">
+        <v>1</v>
+      </c>
+      <c r="CZ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="DA31" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB31" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC31" t="b">
+        <v>1</v>
+      </c>
+      <c r="DD31" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="DF31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9405,7 +11344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE133EF3-78C3-C94A-AC05-A2D79C304FDD}">
   <dimension ref="A1:BN31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="BK1" workbookViewId="0">
       <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
